--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.silva\Python\benner-peticoes-obrigacao-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2547684-7234-4F56-9B07-3F93D7CAC2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD00327-410B-42BC-8079-81483487A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DB6425CC-F907-40F7-94CF-F08784CD4F26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -165,9 +160,18 @@
     <t>Hora da audiência</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Peticionar em Juízo</t>
+  </si>
+  <si>
     <t>02.02.033.0002557384/18</t>
   </si>
   <si>
+    <t>Obrigação de fazer</t>
+  </si>
+  <si>
     <t>02.02.033.0003612976/23</t>
   </si>
   <si>
@@ -178,22 +182,13 @@
   </si>
   <si>
     <t>02.02.033.0002560397/18</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Peticionar em Juízo</t>
-  </si>
-  <si>
-    <t>Obrigação de fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +199,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +226,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -237,16 +245,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -293,20 +313,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -334,31 +354,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -386,23 +389,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,156 +400,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CC255E-5783-4DAB-AA87-B0AE497DFBF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="47" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +670,7 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -704,83 +720,98 @@
       </c>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1159223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1159570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1159504</v>
+      </c>
+      <c r="AF4" s="6"/>
+    </row>
+    <row r="5" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>1157258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1157063</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    <row r="7" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="P7" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.silva\Python\benner-peticoes-obrigacao-py\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD00327-410B-42BC-8079-81483487A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -187,7 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,10 +207,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,34 +239,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -324,71 +331,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,7 +423,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -439,11 +446,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -452,13 +459,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -468,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -477,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -494,10 +501,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -562,24 +569,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="47" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +719,7 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -720,96 +769,351 @@
       </c>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="5">
         <v>1159223</v>
       </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
     </row>
-    <row r="3" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="5">
         <v>1159570</v>
       </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
     </row>
-    <row r="4" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="5">
         <v>1159504</v>
       </c>
       <c r="AF4" s="6"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
     </row>
-    <row r="5" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="5">
         <v>1157258</v>
       </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
     </row>
-    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="5">
         <v>1157063</v>
       </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
     </row>
-    <row r="7" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.silva\Python\benner-peticoes-obrigacao-py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0E376-7524-4100-AFFA-F89A21A0E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Arquivo</t>
   </si>
@@ -176,13 +182,27 @@
   </si>
   <si>
     <t>02.02.033.0002560397/18</t>
+  </si>
+  <si>
+    <t>PET  02.02.033.000255738418</t>
+  </si>
+  <si>
+    <t>PET  02.02.033.000256039718</t>
+  </si>
+  <si>
+    <t>PET  02.02.033.000336308022</t>
+  </si>
+  <si>
+    <t>PET 02.02.033.000368884723</t>
+  </si>
+  <si>
+    <t>PET OF 02.02.033.000361297623</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,47 +259,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -331,71 +343,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,7 +435,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -446,11 +458,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -459,13 +471,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -475,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -484,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -493,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,10 +513,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -569,66 +581,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="47" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,351 +741,111 @@
       </c>
       <c r="AU1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="5">
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="4">
         <v>1159223</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="5">
+      <c r="AB3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="4">
         <v>1159570</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="5">
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="4">
         <v>1159504</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
+      <c r="AF4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="5">
+      <c r="AB5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="4">
         <v>1157258</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="5">
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="4">
         <v>1157063</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4" t="s">
+    <row r="7" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
